--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3618.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3618.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.272675352431482</v>
+        <v>1.733529806137085</v>
       </c>
       <c r="B1">
-        <v>2.27608635615211</v>
+        <v>2.841336011886597</v>
       </c>
       <c r="C1">
-        <v>3.097904568633465</v>
+        <v>3.50223708152771</v>
       </c>
       <c r="D1">
-        <v>3.328982171021627</v>
+        <v>1.352825164794922</v>
       </c>
       <c r="E1">
-        <v>0.9462977171100047</v>
+        <v>0.9037905931472778</v>
       </c>
     </row>
   </sheetData>
